--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rln1-Rxfp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rln1-Rxfp2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.84644</v>
+        <v>1.787066666666667</v>
       </c>
       <c r="H2">
-        <v>5.53932</v>
+        <v>5.3612</v>
       </c>
       <c r="I2">
-        <v>0.5174220289861029</v>
+        <v>0.4880702634734595</v>
       </c>
       <c r="J2">
-        <v>0.5174220289861029</v>
+        <v>0.4880702634734594</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.000437</v>
       </c>
       <c r="O2">
-        <v>0.007621206836414369</v>
+        <v>0.00762120683641437</v>
       </c>
       <c r="P2">
-        <v>0.00762120683641437</v>
+        <v>0.007621206836414371</v>
       </c>
       <c r="Q2">
-        <v>0.00026896476</v>
+        <v>0.0002603160444444445</v>
       </c>
       <c r="R2">
-        <v>0.00242068284</v>
+        <v>0.0023428444</v>
       </c>
       <c r="S2">
-        <v>0.003943380304620281</v>
+        <v>0.003719684428634492</v>
       </c>
       <c r="T2">
-        <v>0.003943380304620282</v>
+        <v>0.003719684428634492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.84644</v>
+        <v>1.787066666666667</v>
       </c>
       <c r="H3">
-        <v>5.53932</v>
+        <v>5.3612</v>
       </c>
       <c r="I3">
-        <v>0.5174220289861029</v>
+        <v>0.4880702634734595</v>
       </c>
       <c r="J3">
-        <v>0.5174220289861029</v>
+        <v>0.4880702634734594</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.003259</v>
       </c>
       <c r="O3">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="P3">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="Q3">
-        <v>0.002005849320000001</v>
+        <v>0.001941350088888889</v>
       </c>
       <c r="R3">
-        <v>0.01805264388</v>
+        <v>0.0174721508</v>
       </c>
       <c r="S3">
-        <v>0.02940841284383867</v>
+        <v>0.02774016373665861</v>
       </c>
       <c r="T3">
-        <v>0.02940841284383867</v>
+        <v>0.0277401637366586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.84644</v>
+        <v>1.787066666666667</v>
       </c>
       <c r="H4">
-        <v>5.53932</v>
+        <v>5.3612</v>
       </c>
       <c r="I4">
-        <v>0.5174220289861029</v>
+        <v>0.4880702634734595</v>
       </c>
       <c r="J4">
-        <v>0.5174220289861029</v>
+        <v>0.4880702634734594</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01788133333333334</v>
+        <v>0.01788133333333333</v>
       </c>
       <c r="N4">
         <v>0.053644</v>
@@ -694,16 +694,16 @@
         <v>0.9355423787931636</v>
       </c>
       <c r="Q4">
-        <v>0.03301680912</v>
+        <v>0.03195513475555556</v>
       </c>
       <c r="R4">
-        <v>0.29715128208</v>
+        <v>0.2875962128</v>
       </c>
       <c r="S4">
-        <v>0.484070235837644</v>
+        <v>0.4566104153081664</v>
       </c>
       <c r="T4">
-        <v>0.484070235837644</v>
+        <v>0.4566104153081663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.391264666666666</v>
+        <v>1.391264666666667</v>
       </c>
       <c r="H5">
-        <v>4.173793999999999</v>
+        <v>4.173794</v>
       </c>
       <c r="I5">
-        <v>0.3898696879851718</v>
+        <v>0.3799717856569321</v>
       </c>
       <c r="J5">
-        <v>0.3898696879851718</v>
+        <v>0.379971785656932</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,10 +750,10 @@
         <v>0.000437</v>
       </c>
       <c r="O5">
-        <v>0.007621206836414369</v>
+        <v>0.00762120683641437</v>
       </c>
       <c r="P5">
-        <v>0.00762120683641437</v>
+        <v>0.007621206836414371</v>
       </c>
       <c r="Q5">
         <v>0.0002026608864444444</v>
@@ -762,10 +762,10 @@
         <v>0.001823947978</v>
       </c>
       <c r="S5">
-        <v>0.002971277531383328</v>
+        <v>0.002895843570493186</v>
       </c>
       <c r="T5">
-        <v>0.002971277531383329</v>
+        <v>0.002895843570493186</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.391264666666666</v>
+        <v>1.391264666666667</v>
       </c>
       <c r="H6">
-        <v>4.173793999999999</v>
+        <v>4.173794</v>
       </c>
       <c r="I6">
-        <v>0.3898696879851718</v>
+        <v>0.3799717856569321</v>
       </c>
       <c r="J6">
-        <v>0.3898696879851718</v>
+        <v>0.379971785656932</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.003259</v>
       </c>
       <c r="O6">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="P6">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="Q6">
         <v>0.001511377182888889</v>
@@ -824,10 +824,10 @@
         <v>0.013602394646</v>
       </c>
       <c r="S6">
-        <v>0.02215879513679237</v>
+        <v>0.02159623385866658</v>
       </c>
       <c r="T6">
-        <v>0.02215879513679237</v>
+        <v>0.02159623385866658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.391264666666666</v>
+        <v>1.391264666666667</v>
       </c>
       <c r="H7">
-        <v>4.173793999999999</v>
+        <v>4.173794</v>
       </c>
       <c r="I7">
-        <v>0.3898696879851718</v>
+        <v>0.3799717856569321</v>
       </c>
       <c r="J7">
-        <v>0.3898696879851718</v>
+        <v>0.379971785656932</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01788133333333334</v>
+        <v>0.01788133333333333</v>
       </c>
       <c r="N7">
         <v>0.053644</v>
@@ -886,10 +886,10 @@
         <v>0.223899005336</v>
       </c>
       <c r="S7">
-        <v>0.3647396153169961</v>
+        <v>0.3554797082277723</v>
       </c>
       <c r="T7">
-        <v>0.3647396153169961</v>
+        <v>0.3554797082277723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05803133333333333</v>
+        <v>0.159805</v>
       </c>
       <c r="H8">
-        <v>0.174094</v>
+        <v>0.479415</v>
       </c>
       <c r="I8">
-        <v>0.01626193661213048</v>
+        <v>0.04364474471445359</v>
       </c>
       <c r="J8">
-        <v>0.01626193661213048</v>
+        <v>0.04364474471445358</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.000437</v>
       </c>
       <c r="O8">
-        <v>0.007621206836414369</v>
+        <v>0.00762120683641437</v>
       </c>
       <c r="P8">
-        <v>0.00762120683641437</v>
+        <v>0.007621206836414371</v>
       </c>
       <c r="Q8">
-        <v>8.453230888888888E-06</v>
+        <v>2.327826166666667E-05</v>
       </c>
       <c r="R8">
-        <v>7.6079078E-05</v>
+        <v>0.000209504355</v>
       </c>
       <c r="S8">
-        <v>0.0001239355824817059</v>
+        <v>0.0003326256267913536</v>
       </c>
       <c r="T8">
-        <v>0.0001239355824817059</v>
+        <v>0.0003326256267913536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05803133333333333</v>
+        <v>0.159805</v>
       </c>
       <c r="H9">
-        <v>0.174094</v>
+        <v>0.479415</v>
       </c>
       <c r="I9">
-        <v>0.01626193661213048</v>
+        <v>0.04364474471445359</v>
       </c>
       <c r="J9">
-        <v>0.01626193661213048</v>
+        <v>0.04364474471445358</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.003259</v>
       </c>
       <c r="O9">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="P9">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="Q9">
-        <v>6.304137177777779E-05</v>
+        <v>0.0001736014983333333</v>
       </c>
       <c r="R9">
-        <v>0.000567372346</v>
+        <v>0.001562413485</v>
       </c>
       <c r="S9">
-        <v>0.0009242701677525849</v>
+        <v>0.002480610795681972</v>
       </c>
       <c r="T9">
-        <v>0.0009242701677525851</v>
+        <v>0.002480610795681971</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05803133333333333</v>
+        <v>0.159805</v>
       </c>
       <c r="H10">
-        <v>0.174094</v>
+        <v>0.479415</v>
       </c>
       <c r="I10">
-        <v>0.01626193661213048</v>
+        <v>0.04364474471445359</v>
       </c>
       <c r="J10">
-        <v>0.01626193661213048</v>
+        <v>0.04364474471445358</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01788133333333334</v>
+        <v>0.01788133333333333</v>
       </c>
       <c r="N10">
         <v>0.053644</v>
@@ -1066,16 +1066,16 @@
         <v>0.9355423787931636</v>
       </c>
       <c r="Q10">
-        <v>0.001037677615111111</v>
+        <v>0.002857526473333333</v>
       </c>
       <c r="R10">
-        <v>0.009339098536</v>
+        <v>0.02571773826</v>
       </c>
       <c r="S10">
-        <v>0.01521373086189618</v>
+        <v>0.04083150829198027</v>
       </c>
       <c r="T10">
-        <v>0.01521373086189619</v>
+        <v>0.04083150829198025</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.14959</v>
+        <v>0.1755086666666667</v>
       </c>
       <c r="H11">
-        <v>0.44877</v>
+        <v>0.526526</v>
       </c>
       <c r="I11">
-        <v>0.04191913158078851</v>
+        <v>0.04793361253928724</v>
       </c>
       <c r="J11">
-        <v>0.04191913158078851</v>
+        <v>0.04793361253928723</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,22 @@
         <v>0.000437</v>
       </c>
       <c r="O11">
-        <v>0.007621206836414369</v>
+        <v>0.00762120683641437</v>
       </c>
       <c r="P11">
-        <v>0.00762120683641437</v>
+        <v>0.007621206836414371</v>
       </c>
       <c r="Q11">
-        <v>2.179027666666667E-05</v>
+        <v>2.556576244444445E-05</v>
       </c>
       <c r="R11">
-        <v>0.00019611249</v>
+        <v>0.000230091862</v>
       </c>
       <c r="S11">
-        <v>0.0003194743721800588</v>
+        <v>0.0003653119755784535</v>
       </c>
       <c r="T11">
-        <v>0.0003194743721800589</v>
+        <v>0.0003653119755784535</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.14959</v>
+        <v>0.1755086666666667</v>
       </c>
       <c r="H12">
-        <v>0.44877</v>
+        <v>0.526526</v>
       </c>
       <c r="I12">
-        <v>0.04191913158078851</v>
+        <v>0.04793361253928724</v>
       </c>
       <c r="J12">
-        <v>0.04191913158078851</v>
+        <v>0.04793361253928723</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.003259</v>
       </c>
       <c r="O12">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="P12">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="Q12">
-        <v>0.0001625046033333334</v>
+        <v>0.0001906609148888889</v>
       </c>
       <c r="R12">
-        <v>0.00146254143</v>
+        <v>0.001715948234</v>
       </c>
       <c r="S12">
-        <v>0.00238253313257394</v>
+        <v>0.002724374664554188</v>
       </c>
       <c r="T12">
-        <v>0.002382533132573941</v>
+        <v>0.002724374664554188</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.14959</v>
+        <v>0.1755086666666667</v>
       </c>
       <c r="H13">
-        <v>0.44877</v>
+        <v>0.526526</v>
       </c>
       <c r="I13">
-        <v>0.04191913158078851</v>
+        <v>0.04793361253928724</v>
       </c>
       <c r="J13">
-        <v>0.04191913158078851</v>
+        <v>0.04793361253928723</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01788133333333334</v>
+        <v>0.01788133333333333</v>
       </c>
       <c r="N13">
         <v>0.053644</v>
@@ -1252,16 +1252,16 @@
         <v>0.9355423787931636</v>
       </c>
       <c r="Q13">
-        <v>0.002674868653333334</v>
+        <v>0.003138328971555555</v>
       </c>
       <c r="R13">
-        <v>0.02407381788</v>
+        <v>0.028244960744</v>
       </c>
       <c r="S13">
-        <v>0.0392171240760345</v>
+        <v>0.0448439258991546</v>
       </c>
       <c r="T13">
-        <v>0.03921712407603451</v>
+        <v>0.04484392589915459</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1232116666666667</v>
+        <v>0.1478496666666667</v>
       </c>
       <c r="H14">
-        <v>0.369635</v>
+        <v>0.443549</v>
       </c>
       <c r="I14">
-        <v>0.03452721483580623</v>
+        <v>0.04037959361586762</v>
       </c>
       <c r="J14">
-        <v>0.03452721483580623</v>
+        <v>0.04037959361586761</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.000437</v>
       </c>
       <c r="O14">
-        <v>0.007621206836414369</v>
+        <v>0.00762120683641437</v>
       </c>
       <c r="P14">
-        <v>0.00762120683641437</v>
+        <v>0.007621206836414371</v>
       </c>
       <c r="Q14">
-        <v>1.794783277777778E-05</v>
+        <v>2.153676811111111E-05</v>
       </c>
       <c r="R14">
-        <v>0.000161530495</v>
+        <v>0.000193830913</v>
       </c>
       <c r="S14">
-        <v>0.0002631390457489941</v>
+        <v>0.0003077412349168843</v>
       </c>
       <c r="T14">
-        <v>0.0002631390457489941</v>
+        <v>0.0003077412349168843</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1232116666666667</v>
+        <v>0.1478496666666667</v>
       </c>
       <c r="H15">
-        <v>0.369635</v>
+        <v>0.443549</v>
       </c>
       <c r="I15">
-        <v>0.03452721483580623</v>
+        <v>0.04037959361586762</v>
       </c>
       <c r="J15">
-        <v>0.03452721483580623</v>
+        <v>0.04037959361586761</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.003259</v>
       </c>
       <c r="O15">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="P15">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="Q15">
-        <v>0.0001338489405555556</v>
+        <v>0.0001606140212222222</v>
       </c>
       <c r="R15">
-        <v>0.001204640465</v>
+        <v>0.001445526191</v>
       </c>
       <c r="S15">
-        <v>0.001962403089464466</v>
+        <v>0.002295031314860701</v>
       </c>
       <c r="T15">
-        <v>0.001962403089464466</v>
+        <v>0.0022950313148607</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1232116666666667</v>
+        <v>0.1478496666666667</v>
       </c>
       <c r="H16">
-        <v>0.369635</v>
+        <v>0.443549</v>
       </c>
       <c r="I16">
-        <v>0.03452721483580623</v>
+        <v>0.04037959361586762</v>
       </c>
       <c r="J16">
-        <v>0.03452721483580623</v>
+        <v>0.04037959361586761</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01788133333333334</v>
+        <v>0.01788133333333333</v>
       </c>
       <c r="N16">
         <v>0.053644</v>
@@ -1438,16 +1438,16 @@
         <v>0.9355423787931636</v>
       </c>
       <c r="Q16">
-        <v>0.002203188882222223</v>
+        <v>0.002643749172888888</v>
       </c>
       <c r="R16">
-        <v>0.01982869994</v>
+        <v>0.023793742556</v>
       </c>
       <c r="S16">
-        <v>0.03230167270059277</v>
+        <v>0.03777682106609003</v>
       </c>
       <c r="T16">
-        <v>0.03230167270059277</v>
+        <v>0.03777682106609002</v>
       </c>
     </row>
   </sheetData>
